--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Gather.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Gather.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16428" windowHeight="8100"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Gather.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Gather.xlsx
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>
